--- a/Rose/Units.xlsx
+++ b/Rose/Units.xlsx
@@ -8,17 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="3" r:id="rId1"/>
+    <sheet name="Units (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Units!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Units (2)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">tbu[#All]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">tbu_3[#All]</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="989">
   <si>
     <t xml:space="preserve">abcoulomb </t>
   </si>
@@ -2982,6 +2985,9 @@
   </si>
   <si>
     <t>Hertz</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -3082,7 +3088,27 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000000000000000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000000000000000E+00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3103,7 +3129,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbu" displayName="tbu" ref="A1:J413" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbu" displayName="tbu" ref="A1:J413" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:J413"/>
   <tableColumns count="10">
     <tableColumn id="2" name="From_1"/>
@@ -3112,10 +3138,30 @@
     <tableColumn id="1" name="From_4"/>
     <tableColumn id="5" name="Base symbol"/>
     <tableColumn id="4" name="Base unit"/>
-    <tableColumn id="6" name="Conversion" dataDxfId="1"/>
+    <tableColumn id="6" name="Conversion" dataDxfId="5"/>
     <tableColumn id="7" name="Type"/>
     <tableColumn id="8" name="Dimension"/>
-    <tableColumn id="10" name="VALID" dataDxfId="0"/>
+    <tableColumn id="10" name="VALID" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tbu_3" displayName="tbu_3" ref="A1:K233" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:K233"/>
+  <tableColumns count="11">
+    <tableColumn id="2" name="From_1"/>
+    <tableColumn id="1" name="From_4"/>
+    <tableColumn id="3" name="From_2"/>
+    <tableColumn id="9" name="From_3"/>
+    <tableColumn id="5" name="Base symbol"/>
+    <tableColumn id="6" name="Conversion" dataDxfId="2"/>
+    <tableColumn id="10" name="VALID" dataDxfId="1" dataCellStyle="Good"/>
+    <tableColumn id="4" name="Base unit"/>
+    <tableColumn id="7" name="Type"/>
+    <tableColumn id="8" name="Dimension"/>
+    <tableColumn id="11" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3411,8 +3457,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J192" sqref="J192"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,7 +3633,7 @@
       <c r="I6" t="s">
         <v>220</v>
       </c>
-      <c r="J6" s="5" t="b">
+      <c r="J6" s="11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3614,7 +3660,7 @@
       <c r="I7" t="s">
         <v>220</v>
       </c>
-      <c r="J7" s="5" t="b">
+      <c r="J7" s="11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14723,4 +14769,6421 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K233"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>906</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="9">
+        <f>F6/7000</f>
+        <v>6.4798910000000008E-5</v>
+      </c>
+      <c r="G4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" t="s">
+        <v>780</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="9">
+        <f>F6/16</f>
+        <v>2.8349523125000001E-2</v>
+      </c>
+      <c r="G5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" t="s">
+        <v>781</v>
+      </c>
+      <c r="E6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.45359237000000002</v>
+      </c>
+      <c r="G6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" t="s">
+        <v>782</v>
+      </c>
+      <c r="E7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="9">
+        <f>F6*100</f>
+        <v>45.359237</v>
+      </c>
+      <c r="G7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" t="s">
+        <v>783</v>
+      </c>
+      <c r="E8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="9">
+        <f>F6*112</f>
+        <v>50.802345440000003</v>
+      </c>
+      <c r="G8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B9" t="s">
+        <v>784</v>
+      </c>
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="9">
+        <v>907.18474000000003</v>
+      </c>
+      <c r="G9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1016.0469088000001</v>
+      </c>
+      <c r="G10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>786</v>
+      </c>
+      <c r="E11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="9">
+        <f>(29+1/6)/1000</f>
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="G11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" t="s">
+        <v>217</v>
+      </c>
+      <c r="J11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" t="s">
+        <v>787</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1.5551738399999999E-3</v>
+      </c>
+      <c r="G13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" t="s">
+        <v>788</v>
+      </c>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3.1103476799999998E-2</v>
+      </c>
+      <c r="G14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" t="s">
+        <v>789</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.37324172160000002</v>
+      </c>
+      <c r="G15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="9">
+        <v>14.593902999999999</v>
+      </c>
+      <c r="G16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" t="s">
+        <v>217</v>
+      </c>
+      <c r="J16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="G17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" t="s">
+        <v>217</v>
+      </c>
+      <c r="J17" t="s">
+        <v>220</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1E-8</v>
+      </c>
+      <c r="G18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>554</v>
+      </c>
+      <c r="B19" t="s">
+        <v>554</v>
+      </c>
+      <c r="E19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="9">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>563</v>
+      </c>
+      <c r="E20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="9">
+        <v>60</v>
+      </c>
+      <c r="G21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>562</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="9">
+        <v>3600</v>
+      </c>
+      <c r="G22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="9">
+        <v>86400</v>
+      </c>
+      <c r="G23" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B24" t="s">
+        <v>552</v>
+      </c>
+      <c r="E24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="9">
+        <v>604800</v>
+      </c>
+      <c r="G24" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>553</v>
+      </c>
+      <c r="B25" t="s">
+        <v>553</v>
+      </c>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="9">
+        <f>F23*14</f>
+        <v>1209600</v>
+      </c>
+      <c r="G25" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="9">
+        <v>31536000</v>
+      </c>
+      <c r="G26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" t="s">
+        <v>790</v>
+      </c>
+      <c r="E27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.99726959999999998</v>
+      </c>
+      <c r="G27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28" t="s">
+        <v>791</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="9">
+        <f>F27*60</f>
+        <v>59.836176000000002</v>
+      </c>
+      <c r="G28" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" t="s">
+        <v>792</v>
+      </c>
+      <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="9">
+        <f>F28*60</f>
+        <v>3590.17056</v>
+      </c>
+      <c r="G29" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B30" t="s">
+        <v>793</v>
+      </c>
+      <c r="E30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="9">
+        <f>F29*24</f>
+        <v>86164.093439999997</v>
+      </c>
+      <c r="G30" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C31" t="s">
+        <v>549</v>
+      </c>
+      <c r="E31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="9">
+        <f>F29*365</f>
+        <v>1310412.2544</v>
+      </c>
+      <c r="G31" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" t="s">
+        <v>795</v>
+      </c>
+      <c r="C32" t="s">
+        <v>550</v>
+      </c>
+      <c r="E32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="9">
+        <v>31556930</v>
+      </c>
+      <c r="G32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>558</v>
+      </c>
+      <c r="F33" s="9">
+        <f>PI()/180</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="G33" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>796</v>
+      </c>
+      <c r="C34" t="s">
+        <v>484</v>
+      </c>
+      <c r="E34" t="s">
+        <v>558</v>
+      </c>
+      <c r="F34" s="9">
+        <f>PI()/200</f>
+        <v>1.5707963267948967E-2</v>
+      </c>
+      <c r="G34" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B35" t="s">
+        <v>797</v>
+      </c>
+      <c r="E35" t="s">
+        <v>558</v>
+      </c>
+      <c r="F35" s="9">
+        <f>PI()/3200</f>
+        <v>9.8174770424681044E-4</v>
+      </c>
+      <c r="G35" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B36" t="s">
+        <v>798</v>
+      </c>
+      <c r="E36" t="s">
+        <v>558</v>
+      </c>
+      <c r="F36" s="9">
+        <f>PI()/648000</f>
+        <v>4.8481368110953598E-6</v>
+      </c>
+      <c r="G36" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B37" t="s">
+        <v>799</v>
+      </c>
+      <c r="E37" t="s">
+        <v>558</v>
+      </c>
+      <c r="F37" s="9">
+        <f>PI()/10800</f>
+        <v>2.9088820866572158E-4</v>
+      </c>
+      <c r="G37" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>558</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>558</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s">
+        <v>558</v>
+      </c>
+      <c r="F39" s="9">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="G39" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>485</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" t="s">
+        <v>219</v>
+      </c>
+      <c r="J41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" t="s">
+        <v>610</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="9">
+        <f>5/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G42" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" t="s">
+        <v>219</v>
+      </c>
+      <c r="J42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" t="s">
+        <v>612</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="9">
+        <f>F42</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G43" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" t="s">
+        <v>219</v>
+      </c>
+      <c r="J43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" t="s">
+        <v>907</v>
+      </c>
+      <c r="E44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="9">
+        <f>F46*10^-6</f>
+        <v>2.5399999999999999E-8</v>
+      </c>
+      <c r="G44" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" t="s">
+        <v>218</v>
+      </c>
+      <c r="J44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="9">
+        <f>F46/1000</f>
+        <v>2.5399999999999997E-5</v>
+      </c>
+      <c r="G45" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" t="s">
+        <v>218</v>
+      </c>
+      <c r="J45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="9">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="G46" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" t="s">
+        <v>218</v>
+      </c>
+      <c r="J46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="G47" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" t="s">
+        <v>218</v>
+      </c>
+      <c r="J47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="9">
+        <f>F47*3</f>
+        <v>0.9144000000000001</v>
+      </c>
+      <c r="G48" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" t="s">
+        <v>218</v>
+      </c>
+      <c r="J48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" t="s">
+        <v>492</v>
+      </c>
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="9">
+        <f>F47*6</f>
+        <v>1.8288000000000002</v>
+      </c>
+      <c r="G49" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>126</v>
+      </c>
+      <c r="I49" t="s">
+        <v>218</v>
+      </c>
+      <c r="J49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>494</v>
+      </c>
+      <c r="D50" t="s">
+        <v>495</v>
+      </c>
+      <c r="E50" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="9">
+        <f>F47*16.5</f>
+        <v>5.0292000000000003</v>
+      </c>
+      <c r="G50" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" t="s">
+        <v>218</v>
+      </c>
+      <c r="J50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" t="s">
+        <v>496</v>
+      </c>
+      <c r="E51" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="9">
+        <f>F47*66</f>
+        <v>20.116800000000001</v>
+      </c>
+      <c r="G51" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" t="s">
+        <v>218</v>
+      </c>
+      <c r="J51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52" t="s">
+        <v>493</v>
+      </c>
+      <c r="E52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="9">
+        <f>F47*660</f>
+        <v>201.16800000000001</v>
+      </c>
+      <c r="G52" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" t="s">
+        <v>218</v>
+      </c>
+      <c r="J52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="9">
+        <f>F47*5280</f>
+        <v>1609.3440000000001</v>
+      </c>
+      <c r="G53" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>308</v>
+      </c>
+      <c r="B54" t="s">
+        <v>800</v>
+      </c>
+      <c r="E54" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="9">
+        <v>0.30480059999999998</v>
+      </c>
+      <c r="G54" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" t="s">
+        <v>218</v>
+      </c>
+      <c r="J54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>497</v>
+      </c>
+      <c r="B55" t="s">
+        <v>801</v>
+      </c>
+      <c r="E55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="9">
+        <f>F54*3</f>
+        <v>0.91440179999999993</v>
+      </c>
+      <c r="G55" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55" t="s">
+        <v>218</v>
+      </c>
+      <c r="J55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>491</v>
+      </c>
+      <c r="B56" t="s">
+        <v>802</v>
+      </c>
+      <c r="E56" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="9">
+        <f>F54*6</f>
+        <v>1.8288035999999999</v>
+      </c>
+      <c r="G56" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>126</v>
+      </c>
+      <c r="I56" t="s">
+        <v>218</v>
+      </c>
+      <c r="J56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>498</v>
+      </c>
+      <c r="B57" t="s">
+        <v>803</v>
+      </c>
+      <c r="E57" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57" s="9">
+        <f>F54*16.5</f>
+        <v>5.0292098999999997</v>
+      </c>
+      <c r="G57" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" t="s">
+        <v>218</v>
+      </c>
+      <c r="J57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>490</v>
+      </c>
+      <c r="B58" t="s">
+        <v>804</v>
+      </c>
+      <c r="E58" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="9">
+        <f>F54*66</f>
+        <v>20.116839599999999</v>
+      </c>
+      <c r="G58" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" t="s">
+        <v>218</v>
+      </c>
+      <c r="J58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>499</v>
+      </c>
+      <c r="B59" t="s">
+        <v>805</v>
+      </c>
+      <c r="E59" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="9">
+        <f>F54*660</f>
+        <v>201.16839599999997</v>
+      </c>
+      <c r="G59" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>126</v>
+      </c>
+      <c r="I59" t="s">
+        <v>218</v>
+      </c>
+      <c r="J59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>309</v>
+      </c>
+      <c r="B60" t="s">
+        <v>806</v>
+      </c>
+      <c r="E60" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="9">
+        <f>F54*5280</f>
+        <v>1609.3471679999998</v>
+      </c>
+      <c r="G60" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>126</v>
+      </c>
+      <c r="I60" t="s">
+        <v>218</v>
+      </c>
+      <c r="J60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61" t="s">
+        <v>921</v>
+      </c>
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1852</v>
+      </c>
+      <c r="G61" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>126</v>
+      </c>
+      <c r="I61" t="s">
+        <v>218</v>
+      </c>
+      <c r="J61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>501</v>
+      </c>
+      <c r="B62" t="s">
+        <v>807</v>
+      </c>
+      <c r="C62" t="s">
+        <v>307</v>
+      </c>
+      <c r="E62" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="9">
+        <v>149597870700</v>
+      </c>
+      <c r="G62" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>126</v>
+      </c>
+      <c r="I62" t="s">
+        <v>218</v>
+      </c>
+      <c r="J62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" t="s">
+        <v>808</v>
+      </c>
+      <c r="E63" t="s">
+        <v>153</v>
+      </c>
+      <c r="F63" s="9">
+        <v>9460730472580800</v>
+      </c>
+      <c r="G63" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>126</v>
+      </c>
+      <c r="I63" t="s">
+        <v>218</v>
+      </c>
+      <c r="J63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" s="9">
+        <f>648000*F62/PI()</f>
+        <v>3.0856775814913672E+16</v>
+      </c>
+      <c r="G64" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" t="s">
+        <v>218</v>
+      </c>
+      <c r="J64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>504</v>
+      </c>
+      <c r="B65" t="s">
+        <v>809</v>
+      </c>
+      <c r="E65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" s="9">
+        <f>F66/20</f>
+        <v>1.7568333333333333E-5</v>
+      </c>
+      <c r="G65" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" t="s">
+        <v>218</v>
+      </c>
+      <c r="J65" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>810</v>
+      </c>
+      <c r="E66" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="9">
+        <f>F67/12</f>
+        <v>3.5136666666666668E-4</v>
+      </c>
+      <c r="G66" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>126</v>
+      </c>
+      <c r="I66" t="s">
+        <v>218</v>
+      </c>
+      <c r="J66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" t="s">
+        <v>811</v>
+      </c>
+      <c r="E67" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" s="9">
+        <f>F46*0.166</f>
+        <v>4.2164000000000004E-3</v>
+      </c>
+      <c r="G67" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" t="s">
+        <v>218</v>
+      </c>
+      <c r="J67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" t="s">
+        <v>812</v>
+      </c>
+      <c r="E68" t="s">
+        <v>153</v>
+      </c>
+      <c r="F68" s="9">
+        <f>F69/12</f>
+        <v>3.5277777777777781E-4</v>
+      </c>
+      <c r="G68" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>126</v>
+      </c>
+      <c r="I68" t="s">
+        <v>218</v>
+      </c>
+      <c r="J68" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>280</v>
+      </c>
+      <c r="B69" t="s">
+        <v>813</v>
+      </c>
+      <c r="E69" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="9">
+        <f>F47/72</f>
+        <v>4.2333333333333337E-3</v>
+      </c>
+      <c r="G69" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>126</v>
+      </c>
+      <c r="I69" t="s">
+        <v>218</v>
+      </c>
+      <c r="J69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>505</v>
+      </c>
+      <c r="B70" t="s">
+        <v>814</v>
+      </c>
+      <c r="C70" t="s">
+        <v>506</v>
+      </c>
+      <c r="E70" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70" s="9" t="e">
+        <f>F71/12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G70" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>126</v>
+      </c>
+      <c r="I70" t="s">
+        <v>218</v>
+      </c>
+      <c r="J70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>502</v>
+      </c>
+      <c r="B71" t="s">
+        <v>815</v>
+      </c>
+      <c r="C71" t="s">
+        <v>503</v>
+      </c>
+      <c r="E71" t="s">
+        <v>153</v>
+      </c>
+      <c r="F71" s="9" t="e">
+        <f>12*0.376*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G71" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>126</v>
+      </c>
+      <c r="I71" t="s">
+        <v>218</v>
+      </c>
+      <c r="J71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" s="9">
+        <v>1</v>
+      </c>
+      <c r="G72" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>126</v>
+      </c>
+      <c r="I72" t="s">
+        <v>218</v>
+      </c>
+      <c r="J72" t="s">
+        <v>168</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="G73" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" t="s">
+        <v>218</v>
+      </c>
+      <c r="J73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>507</v>
+      </c>
+      <c r="B74" t="s">
+        <v>816</v>
+      </c>
+      <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" s="9">
+        <f>F75/4</f>
+        <v>1011.7141056</v>
+      </c>
+      <c r="G74" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>182</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" t="s">
+        <v>817</v>
+      </c>
+      <c r="E75" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="9">
+        <f>43560*F47^2</f>
+        <v>4046.8564224000002</v>
+      </c>
+      <c r="G75" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>182</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>489</v>
+      </c>
+      <c r="B76" t="s">
+        <v>818</v>
+      </c>
+      <c r="E76" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="9">
+        <f>4046+13525426/15499969</f>
+        <v>4046.8726098742518</v>
+      </c>
+      <c r="G76" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>182</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>508</v>
+      </c>
+      <c r="B77" t="s">
+        <v>509</v>
+      </c>
+      <c r="E77" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>182</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>138</v>
+      </c>
+      <c r="F78" s="9">
+        <v>100</v>
+      </c>
+      <c r="G78" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>182</v>
+      </c>
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" t="s">
+        <v>138</v>
+      </c>
+      <c r="F79" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G79" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>182</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" t="s">
+        <v>138</v>
+      </c>
+      <c r="F80" s="9">
+        <v>9.9999999999999997E-29</v>
+      </c>
+      <c r="G80" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>182</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" t="s">
+        <v>920</v>
+      </c>
+      <c r="E81" t="s">
+        <v>138</v>
+      </c>
+      <c r="F81" s="9">
+        <f>0.00016129*PI()</f>
+        <v>5.0670747909749769E-4</v>
+      </c>
+      <c r="G81" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>182</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>323</v>
+      </c>
+      <c r="B82" t="s">
+        <v>513</v>
+      </c>
+      <c r="E82" t="s">
+        <v>136</v>
+      </c>
+      <c r="F82" s="9">
+        <f>F75*F47</f>
+        <v>1233.4818375475202</v>
+      </c>
+      <c r="G82" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>180</v>
+      </c>
+      <c r="I82" t="s">
+        <v>190</v>
+      </c>
+      <c r="J82" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" t="s">
+        <v>819</v>
+      </c>
+      <c r="E83" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" s="9">
+        <f>F76*F54</f>
+        <v>1233.4891996132378</v>
+      </c>
+      <c r="G83" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>180</v>
+      </c>
+      <c r="I83" t="s">
+        <v>190</v>
+      </c>
+      <c r="J83" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>514</v>
+      </c>
+      <c r="B84" t="s">
+        <v>514</v>
+      </c>
+      <c r="E84" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="9">
+        <f>F92/1024</f>
+        <v>3.6966911953124997E-6</v>
+      </c>
+      <c r="G84" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>180</v>
+      </c>
+      <c r="I84" t="s">
+        <v>190</v>
+      </c>
+      <c r="J84" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>291</v>
+      </c>
+      <c r="B85" t="s">
+        <v>908</v>
+      </c>
+      <c r="E85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" s="9">
+        <f>F92/768</f>
+        <v>4.9289215937499996E-6</v>
+      </c>
+      <c r="G85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>180</v>
+      </c>
+      <c r="I85" t="s">
+        <v>190</v>
+      </c>
+      <c r="J85" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>290</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="9">
+        <f>F92/256</f>
+        <v>1.4786764781249999E-5</v>
+      </c>
+      <c r="G86" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>180</v>
+      </c>
+      <c r="I86" t="s">
+        <v>190</v>
+      </c>
+      <c r="J86" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>820</v>
+      </c>
+      <c r="E87" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="9">
+        <f>F92/128</f>
+        <v>2.9573529562499998E-5</v>
+      </c>
+      <c r="G87" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>180</v>
+      </c>
+      <c r="I87" t="s">
+        <v>190</v>
+      </c>
+      <c r="J87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" t="s">
+        <v>821</v>
+      </c>
+      <c r="E88" t="s">
+        <v>136</v>
+      </c>
+      <c r="F88" s="9">
+        <f>F92/32</f>
+        <v>1.1829411824999999E-4</v>
+      </c>
+      <c r="G88" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>180</v>
+      </c>
+      <c r="I88" t="s">
+        <v>190</v>
+      </c>
+      <c r="J88" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" t="s">
+        <v>822</v>
+      </c>
+      <c r="E89" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="9">
+        <f>F92/16</f>
+        <v>2.3658823649999998E-4</v>
+      </c>
+      <c r="G89" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>180</v>
+      </c>
+      <c r="I89" t="s">
+        <v>190</v>
+      </c>
+      <c r="J89" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" t="s">
+        <v>823</v>
+      </c>
+      <c r="E90" t="s">
+        <v>136</v>
+      </c>
+      <c r="F90" s="9">
+        <f>F92/8</f>
+        <v>4.7317647299999996E-4</v>
+      </c>
+      <c r="G90" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>180</v>
+      </c>
+      <c r="I90" t="s">
+        <v>190</v>
+      </c>
+      <c r="J90" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>341</v>
+      </c>
+      <c r="B91" t="s">
+        <v>824</v>
+      </c>
+      <c r="E91" t="s">
+        <v>136</v>
+      </c>
+      <c r="F91" s="9">
+        <f>F92/4</f>
+        <v>9.4635294599999993E-4</v>
+      </c>
+      <c r="G91" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>180</v>
+      </c>
+      <c r="I91" t="s">
+        <v>190</v>
+      </c>
+      <c r="J91" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>825</v>
+      </c>
+      <c r="E92" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" s="9">
+        <f>231*F46^3</f>
+        <v>3.7854117839999997E-3</v>
+      </c>
+      <c r="G92" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>180</v>
+      </c>
+      <c r="I92" t="s">
+        <v>190</v>
+      </c>
+      <c r="J92" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>529</v>
+      </c>
+      <c r="B93" t="s">
+        <v>826</v>
+      </c>
+      <c r="C93" t="s">
+        <v>530</v>
+      </c>
+      <c r="D93" t="s">
+        <v>292</v>
+      </c>
+      <c r="E93" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="9">
+        <f>100*F47^3</f>
+        <v>2.8316846592000005</v>
+      </c>
+      <c r="G93" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>180</v>
+      </c>
+      <c r="I93" t="s">
+        <v>190</v>
+      </c>
+      <c r="J93" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>511</v>
+      </c>
+      <c r="B94" t="s">
+        <v>827</v>
+      </c>
+      <c r="C94" t="s">
+        <v>518</v>
+      </c>
+      <c r="D94" t="s">
+        <v>519</v>
+      </c>
+      <c r="E94" t="s">
+        <v>136</v>
+      </c>
+      <c r="F94" s="9">
+        <f>F98/160</f>
+        <v>2.8413062500000005E-5</v>
+      </c>
+      <c r="G94" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>180</v>
+      </c>
+      <c r="I94" t="s">
+        <v>190</v>
+      </c>
+      <c r="J94" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>336</v>
+      </c>
+      <c r="B95" t="s">
+        <v>828</v>
+      </c>
+      <c r="C95" t="s">
+        <v>337</v>
+      </c>
+      <c r="D95" t="s">
+        <v>520</v>
+      </c>
+      <c r="E95" t="s">
+        <v>136</v>
+      </c>
+      <c r="F95" s="9">
+        <f>5*F94</f>
+        <v>1.4206531250000003E-4</v>
+      </c>
+      <c r="G95" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>180</v>
+      </c>
+      <c r="I95" t="s">
+        <v>190</v>
+      </c>
+      <c r="J95" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>526</v>
+      </c>
+      <c r="B96" t="s">
+        <v>829</v>
+      </c>
+      <c r="C96" t="s">
+        <v>527</v>
+      </c>
+      <c r="D96" t="s">
+        <v>528</v>
+      </c>
+      <c r="E96" t="s">
+        <v>136</v>
+      </c>
+      <c r="F96" s="9">
+        <f>F98/8</f>
+        <v>5.6826125000000011E-4</v>
+      </c>
+      <c r="G96" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>180</v>
+      </c>
+      <c r="I96" t="s">
+        <v>190</v>
+      </c>
+      <c r="J96" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>523</v>
+      </c>
+      <c r="B97" t="s">
+        <v>830</v>
+      </c>
+      <c r="C97" t="s">
+        <v>524</v>
+      </c>
+      <c r="D97" t="s">
+        <v>525</v>
+      </c>
+      <c r="E97" t="s">
+        <v>136</v>
+      </c>
+      <c r="F97" s="9">
+        <f>F98/4</f>
+        <v>1.1365225000000002E-3</v>
+      </c>
+      <c r="G97" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>180</v>
+      </c>
+      <c r="I97" t="s">
+        <v>190</v>
+      </c>
+      <c r="J97" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>334</v>
+      </c>
+      <c r="B98" t="s">
+        <v>831</v>
+      </c>
+      <c r="C98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D98" t="s">
+        <v>521</v>
+      </c>
+      <c r="E98" t="s">
+        <v>136</v>
+      </c>
+      <c r="F98" s="9">
+        <v>4.5460900000000009E-3</v>
+      </c>
+      <c r="G98" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>180</v>
+      </c>
+      <c r="I98" t="s">
+        <v>190</v>
+      </c>
+      <c r="J98" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>539</v>
+      </c>
+      <c r="B99" t="s">
+        <v>832</v>
+      </c>
+      <c r="C99" t="s">
+        <v>769</v>
+      </c>
+      <c r="E99" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99" s="9">
+        <f>231*F46^3</f>
+        <v>3.7854117839999997E-3</v>
+      </c>
+      <c r="G99" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>180</v>
+      </c>
+      <c r="I99" t="s">
+        <v>190</v>
+      </c>
+      <c r="J99" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>531</v>
+      </c>
+      <c r="B100" t="s">
+        <v>531</v>
+      </c>
+      <c r="E100" t="s">
+        <v>136</v>
+      </c>
+      <c r="F100" s="9">
+        <f>18*F99</f>
+        <v>6.8137412112000001E-2</v>
+      </c>
+      <c r="G100" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>180</v>
+      </c>
+      <c r="I100" t="s">
+        <v>190</v>
+      </c>
+      <c r="J100" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>532</v>
+      </c>
+      <c r="B101" t="s">
+        <v>833</v>
+      </c>
+      <c r="E101" t="s">
+        <v>136</v>
+      </c>
+      <c r="F101" s="9">
+        <f>31.5*F99</f>
+        <v>0.11924047119599999</v>
+      </c>
+      <c r="G101" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>180</v>
+      </c>
+      <c r="I101" t="s">
+        <v>190</v>
+      </c>
+      <c r="J101" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>533</v>
+      </c>
+      <c r="B102" t="s">
+        <v>533</v>
+      </c>
+      <c r="E102" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102" s="9">
+        <f>42*F99</f>
+        <v>0.15898729492799998</v>
+      </c>
+      <c r="G102" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>180</v>
+      </c>
+      <c r="I102" t="s">
+        <v>190</v>
+      </c>
+      <c r="J102" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>545</v>
+      </c>
+      <c r="B103" t="s">
+        <v>834</v>
+      </c>
+      <c r="E103" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="9">
+        <f>63*F99</f>
+        <v>0.23848094239199999</v>
+      </c>
+      <c r="G103" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>180</v>
+      </c>
+      <c r="I103" t="s">
+        <v>190</v>
+      </c>
+      <c r="J103" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>534</v>
+      </c>
+      <c r="B104" t="s">
+        <v>534</v>
+      </c>
+      <c r="C104" t="s">
+        <v>535</v>
+      </c>
+      <c r="E104" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" s="9">
+        <f>84*F99</f>
+        <v>0.31797458985599997</v>
+      </c>
+      <c r="G104" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>180</v>
+      </c>
+      <c r="I104" t="s">
+        <v>190</v>
+      </c>
+      <c r="J104" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>536</v>
+      </c>
+      <c r="B105" t="s">
+        <v>536</v>
+      </c>
+      <c r="C105" t="s">
+        <v>537</v>
+      </c>
+      <c r="E105" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" s="9">
+        <f>126*F99</f>
+        <v>0.47696188478399998</v>
+      </c>
+      <c r="G105" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>180</v>
+      </c>
+      <c r="I105" t="s">
+        <v>190</v>
+      </c>
+      <c r="J105" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>538</v>
+      </c>
+      <c r="B106" t="s">
+        <v>538</v>
+      </c>
+      <c r="E106" t="s">
+        <v>136</v>
+      </c>
+      <c r="F106" s="9">
+        <f>252*F99</f>
+        <v>0.95392376956799996</v>
+      </c>
+      <c r="G106" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>180</v>
+      </c>
+      <c r="I106" t="s">
+        <v>190</v>
+      </c>
+      <c r="J106" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>540</v>
+      </c>
+      <c r="B107" t="s">
+        <v>835</v>
+      </c>
+      <c r="C107" t="s">
+        <v>770</v>
+      </c>
+      <c r="E107" t="s">
+        <v>136</v>
+      </c>
+      <c r="F107" s="9">
+        <f>282*F46^3</f>
+        <v>4.6211520479999997E-3</v>
+      </c>
+      <c r="G107" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>180</v>
+      </c>
+      <c r="I107" t="s">
+        <v>190</v>
+      </c>
+      <c r="J107" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>541</v>
+      </c>
+      <c r="B108" t="s">
+        <v>541</v>
+      </c>
+      <c r="E108" t="s">
+        <v>136</v>
+      </c>
+      <c r="F108" s="9">
+        <f>9*F98</f>
+        <v>4.091481000000001E-2</v>
+      </c>
+      <c r="G108" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>180</v>
+      </c>
+      <c r="I108" t="s">
+        <v>190</v>
+      </c>
+      <c r="J108" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>542</v>
+      </c>
+      <c r="B109" t="s">
+        <v>542</v>
+      </c>
+      <c r="E109" t="s">
+        <v>136</v>
+      </c>
+      <c r="F109" s="9">
+        <f>18*F98</f>
+        <v>8.182962000000002E-2</v>
+      </c>
+      <c r="G109" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>180</v>
+      </c>
+      <c r="I109" t="s">
+        <v>190</v>
+      </c>
+      <c r="J109" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>543</v>
+      </c>
+      <c r="B110" t="s">
+        <v>836</v>
+      </c>
+      <c r="E110" t="s">
+        <v>136</v>
+      </c>
+      <c r="F110" s="9">
+        <f>36*F98</f>
+        <v>0.16365924000000004</v>
+      </c>
+      <c r="G110" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>180</v>
+      </c>
+      <c r="I110" t="s">
+        <v>190</v>
+      </c>
+      <c r="J110" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>544</v>
+      </c>
+      <c r="B111" t="s">
+        <v>837</v>
+      </c>
+      <c r="E111" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="9">
+        <f>54*F98</f>
+        <v>0.24548886000000006</v>
+      </c>
+      <c r="G111" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>180</v>
+      </c>
+      <c r="I111" t="s">
+        <v>190</v>
+      </c>
+      <c r="J111" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>338</v>
+      </c>
+      <c r="B112" t="s">
+        <v>838</v>
+      </c>
+      <c r="E112" t="s">
+        <v>136</v>
+      </c>
+      <c r="F112" s="9">
+        <f>F114/8</f>
+        <v>5.506104713575E-4</v>
+      </c>
+      <c r="G112" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>180</v>
+      </c>
+      <c r="I112" t="s">
+        <v>190</v>
+      </c>
+      <c r="J112" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>340</v>
+      </c>
+      <c r="B113" t="s">
+        <v>839</v>
+      </c>
+      <c r="E113" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113" s="9">
+        <f>F114/4</f>
+        <v>1.101220942715E-3</v>
+      </c>
+      <c r="G113" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>180</v>
+      </c>
+      <c r="I113" t="s">
+        <v>190</v>
+      </c>
+      <c r="J113" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>515</v>
+      </c>
+      <c r="B114" t="s">
+        <v>840</v>
+      </c>
+      <c r="E114" t="s">
+        <v>136</v>
+      </c>
+      <c r="F114" s="9">
+        <f>268.8025*F46^3</f>
+        <v>4.40488377086E-3</v>
+      </c>
+      <c r="G114" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>180</v>
+      </c>
+      <c r="I114" t="s">
+        <v>190</v>
+      </c>
+      <c r="J114" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115" t="s">
+        <v>841</v>
+      </c>
+      <c r="C115" t="s">
+        <v>516</v>
+      </c>
+      <c r="E115" t="s">
+        <v>136</v>
+      </c>
+      <c r="F115" s="9">
+        <f>F114*2</f>
+        <v>8.8097675417200001E-3</v>
+      </c>
+      <c r="G115" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>180</v>
+      </c>
+      <c r="I115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J115" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" t="s">
+        <v>842</v>
+      </c>
+      <c r="C116" t="s">
+        <v>517</v>
+      </c>
+      <c r="E116" t="s">
+        <v>136</v>
+      </c>
+      <c r="F116" s="9">
+        <f>8*F114</f>
+        <v>3.523907016688E-2</v>
+      </c>
+      <c r="G116" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>180</v>
+      </c>
+      <c r="I116" t="s">
+        <v>190</v>
+      </c>
+      <c r="J116" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>75</v>
+      </c>
+      <c r="B117" t="s">
+        <v>75</v>
+      </c>
+      <c r="E117" t="s">
+        <v>136</v>
+      </c>
+      <c r="F117" s="9">
+        <f>128*F47^3</f>
+        <v>3.6245563637760005</v>
+      </c>
+      <c r="G117" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>180</v>
+      </c>
+      <c r="I117" t="s">
+        <v>190</v>
+      </c>
+      <c r="J117" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" t="s">
+        <v>946</v>
+      </c>
+      <c r="E118" t="s">
+        <v>136</v>
+      </c>
+      <c r="F118" s="9">
+        <f>F92*42</f>
+        <v>0.15898729492799998</v>
+      </c>
+      <c r="G118" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>180</v>
+      </c>
+      <c r="I118" t="s">
+        <v>190</v>
+      </c>
+      <c r="J118" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>168</v>
+      </c>
+      <c r="B119" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" t="s">
+        <v>522</v>
+      </c>
+      <c r="E119" t="s">
+        <v>136</v>
+      </c>
+      <c r="F119" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="G119" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="s">
+        <v>180</v>
+      </c>
+      <c r="I119" t="s">
+        <v>190</v>
+      </c>
+      <c r="J119" t="s">
+        <v>277</v>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>564</v>
+      </c>
+      <c r="B120" t="s">
+        <v>843</v>
+      </c>
+      <c r="E120" t="s">
+        <v>167</v>
+      </c>
+      <c r="F120" s="9">
+        <f>F46/F20</f>
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="G120" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>186</v>
+      </c>
+      <c r="I120" t="s">
+        <v>189</v>
+      </c>
+      <c r="J120" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>565</v>
+      </c>
+      <c r="B121" t="s">
+        <v>844</v>
+      </c>
+      <c r="E121" t="s">
+        <v>167</v>
+      </c>
+      <c r="F121" s="9">
+        <f>F120/60</f>
+        <v>4.2333333333333334E-4</v>
+      </c>
+      <c r="G121" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
+        <v>186</v>
+      </c>
+      <c r="I121" t="s">
+        <v>189</v>
+      </c>
+      <c r="J121" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>559</v>
+      </c>
+      <c r="B122" t="s">
+        <v>845</v>
+      </c>
+      <c r="D122" t="s">
+        <v>560</v>
+      </c>
+      <c r="E122" t="s">
+        <v>167</v>
+      </c>
+      <c r="F122" s="9">
+        <f>F120/3600</f>
+        <v>7.055555555555555E-6</v>
+      </c>
+      <c r="G122" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="s">
+        <v>186</v>
+      </c>
+      <c r="I122" t="s">
+        <v>189</v>
+      </c>
+      <c r="J122" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>547</v>
+      </c>
+      <c r="B123" t="s">
+        <v>846</v>
+      </c>
+      <c r="E123" t="s">
+        <v>167</v>
+      </c>
+      <c r="F123" s="9">
+        <f>F47/F20</f>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="G123" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="s">
+        <v>186</v>
+      </c>
+      <c r="I123" t="s">
+        <v>189</v>
+      </c>
+      <c r="J123" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>548</v>
+      </c>
+      <c r="B124" t="s">
+        <v>847</v>
+      </c>
+      <c r="E124" t="s">
+        <v>167</v>
+      </c>
+      <c r="F124" s="9">
+        <f>F123/60</f>
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G124" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>186</v>
+      </c>
+      <c r="I124" t="s">
+        <v>189</v>
+      </c>
+      <c r="J124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>546</v>
+      </c>
+      <c r="B125" t="s">
+        <v>848</v>
+      </c>
+      <c r="D125" t="s">
+        <v>561</v>
+      </c>
+      <c r="E125" t="s">
+        <v>167</v>
+      </c>
+      <c r="F125" s="9">
+        <f>F123/3600</f>
+        <v>8.4666666666666674E-5</v>
+      </c>
+      <c r="G125" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>186</v>
+      </c>
+      <c r="I125" t="s">
+        <v>189</v>
+      </c>
+      <c r="J125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>569</v>
+      </c>
+      <c r="B126" t="s">
+        <v>849</v>
+      </c>
+      <c r="E126" t="s">
+        <v>167</v>
+      </c>
+      <c r="F126" s="9">
+        <f>F53/F20</f>
+        <v>1609.3440000000001</v>
+      </c>
+      <c r="G126" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>186</v>
+      </c>
+      <c r="I126" t="s">
+        <v>189</v>
+      </c>
+      <c r="J126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>567</v>
+      </c>
+      <c r="B127" t="s">
+        <v>850</v>
+      </c>
+      <c r="E127" t="s">
+        <v>167</v>
+      </c>
+      <c r="F127" s="9">
+        <f>F126/60</f>
+        <v>26.822400000000002</v>
+      </c>
+      <c r="G127" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>186</v>
+      </c>
+      <c r="I127" t="s">
+        <v>189</v>
+      </c>
+      <c r="J127" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>568</v>
+      </c>
+      <c r="B128" t="s">
+        <v>851</v>
+      </c>
+      <c r="E128" t="s">
+        <v>167</v>
+      </c>
+      <c r="F128" s="9">
+        <f>F126/3600</f>
+        <v>0.44703999999999999</v>
+      </c>
+      <c r="G128" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="s">
+        <v>186</v>
+      </c>
+      <c r="I128" t="s">
+        <v>189</v>
+      </c>
+      <c r="J128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>566</v>
+      </c>
+      <c r="B129" t="s">
+        <v>852</v>
+      </c>
+      <c r="E129" t="s">
+        <v>167</v>
+      </c>
+      <c r="F129" s="9">
+        <f>5/18</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="G129" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
+        <v>186</v>
+      </c>
+      <c r="I129" t="s">
+        <v>189</v>
+      </c>
+      <c r="J129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>333</v>
+      </c>
+      <c r="B130" t="s">
+        <v>71</v>
+      </c>
+      <c r="E130" t="s">
+        <v>167</v>
+      </c>
+      <c r="F130" s="9">
+        <f>F61/F22</f>
+        <v>0.51444444444444448</v>
+      </c>
+      <c r="G130" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="s">
+        <v>186</v>
+      </c>
+      <c r="I130" t="s">
+        <v>189</v>
+      </c>
+      <c r="J130" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>72</v>
+      </c>
+      <c r="B131" t="s">
+        <v>853</v>
+      </c>
+      <c r="C131" t="s">
+        <v>982</v>
+      </c>
+      <c r="E131" t="s">
+        <v>922</v>
+      </c>
+      <c r="F131" s="9">
+        <f>PI()/30</f>
+        <v>0.10471975511965977</v>
+      </c>
+      <c r="G131" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
+        <v>986</v>
+      </c>
+      <c r="I131" t="s">
+        <v>486</v>
+      </c>
+      <c r="J131" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>983</v>
+      </c>
+      <c r="B132" t="s">
+        <v>985</v>
+      </c>
+      <c r="C132" t="s">
+        <v>984</v>
+      </c>
+      <c r="E132" t="s">
+        <v>922</v>
+      </c>
+      <c r="F132" s="9">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="G132" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="s">
+        <v>986</v>
+      </c>
+      <c r="J132" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>981</v>
+      </c>
+      <c r="B133" t="s">
+        <v>987</v>
+      </c>
+      <c r="C133" t="s">
+        <v>981</v>
+      </c>
+      <c r="E133" t="s">
+        <v>922</v>
+      </c>
+      <c r="F133" s="9">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="G133" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>986</v>
+      </c>
+      <c r="J133" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>78</v>
+      </c>
+      <c r="B134" t="s">
+        <v>854</v>
+      </c>
+      <c r="C134" t="s">
+        <v>615</v>
+      </c>
+      <c r="E134" t="s">
+        <v>137</v>
+      </c>
+      <c r="F134" s="9">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="G134" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>21</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>114</v>
+      </c>
+      <c r="B135" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" t="s">
+        <v>616</v>
+      </c>
+      <c r="E135" t="s">
+        <v>137</v>
+      </c>
+      <c r="F135" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="G135" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="s">
+        <v>21</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>199</v>
+      </c>
+      <c r="B136" t="s">
+        <v>855</v>
+      </c>
+      <c r="C136" t="s">
+        <v>510</v>
+      </c>
+      <c r="E136" t="s">
+        <v>150</v>
+      </c>
+      <c r="F136" s="9">
+        <f>F137/16</f>
+        <v>0.27801385095378123</v>
+      </c>
+      <c r="G136" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="s">
+        <v>125</v>
+      </c>
+      <c r="I136" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>231</v>
+      </c>
+      <c r="B137" t="s">
+        <v>856</v>
+      </c>
+      <c r="C137" t="s">
+        <v>663</v>
+      </c>
+      <c r="E137" t="s">
+        <v>150</v>
+      </c>
+      <c r="F137" s="9">
+        <f>F134*F6</f>
+        <v>4.4482216152604996</v>
+      </c>
+      <c r="G137" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>125</v>
+      </c>
+      <c r="I137" t="s">
+        <v>18</v>
+      </c>
+      <c r="J137" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" t="s">
+        <v>857</v>
+      </c>
+      <c r="C138" t="s">
+        <v>705</v>
+      </c>
+      <c r="E138" t="s">
+        <v>150</v>
+      </c>
+      <c r="F138" s="9">
+        <f>F137*1000</f>
+        <v>4448.2216152604997</v>
+      </c>
+      <c r="G138" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="s">
+        <v>125</v>
+      </c>
+      <c r="I138" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>232</v>
+      </c>
+      <c r="B139" t="s">
+        <v>858</v>
+      </c>
+      <c r="C139" t="s">
+        <v>319</v>
+      </c>
+      <c r="E139" t="s">
+        <v>150</v>
+      </c>
+      <c r="F139" s="9">
+        <f>F137*2000</f>
+        <v>8896.4432305209994</v>
+      </c>
+      <c r="G139" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>125</v>
+      </c>
+      <c r="I139" t="s">
+        <v>18</v>
+      </c>
+      <c r="J139" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>89</v>
+      </c>
+      <c r="B140" t="s">
+        <v>41</v>
+      </c>
+      <c r="E140" t="s">
+        <v>150</v>
+      </c>
+      <c r="F140" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G140" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>125</v>
+      </c>
+      <c r="I140" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>90</v>
+      </c>
+      <c r="B141" t="s">
+        <v>42</v>
+      </c>
+      <c r="E141" t="s">
+        <v>150</v>
+      </c>
+      <c r="F141" s="9">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="G141" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="s">
+        <v>125</v>
+      </c>
+      <c r="I141" t="s">
+        <v>18</v>
+      </c>
+      <c r="J141" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>198</v>
+      </c>
+      <c r="B142" t="s">
+        <v>859</v>
+      </c>
+      <c r="E142" t="s">
+        <v>150</v>
+      </c>
+      <c r="F142" s="9">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="G142" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="s">
+        <v>125</v>
+      </c>
+      <c r="I142" t="s">
+        <v>18</v>
+      </c>
+      <c r="J142" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>230</v>
+      </c>
+      <c r="B143" t="s">
+        <v>919</v>
+      </c>
+      <c r="E143" t="s">
+        <v>150</v>
+      </c>
+      <c r="F143" s="9">
+        <v>0.13825495437599999</v>
+      </c>
+      <c r="G143" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>125</v>
+      </c>
+      <c r="I143" t="s">
+        <v>18</v>
+      </c>
+      <c r="J143" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" t="s">
+        <v>125</v>
+      </c>
+      <c r="E144" t="s">
+        <v>150</v>
+      </c>
+      <c r="F144" s="9">
+        <v>1</v>
+      </c>
+      <c r="G144" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="s">
+        <v>125</v>
+      </c>
+      <c r="I144" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" t="s">
+        <v>260</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>103</v>
+      </c>
+      <c r="B145" t="s">
+        <v>947</v>
+      </c>
+      <c r="E145" t="s">
+        <v>956</v>
+      </c>
+      <c r="F145" s="9">
+        <v>101325</v>
+      </c>
+      <c r="G145" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="s">
+        <v>957</v>
+      </c>
+      <c r="I145" t="s">
+        <v>188</v>
+      </c>
+      <c r="J145" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>321</v>
+      </c>
+      <c r="B146" t="s">
+        <v>948</v>
+      </c>
+      <c r="E146" t="s">
+        <v>956</v>
+      </c>
+      <c r="F146" s="9">
+        <v>98066.5</v>
+      </c>
+      <c r="G146" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="s">
+        <v>957</v>
+      </c>
+      <c r="I146" t="s">
+        <v>188</v>
+      </c>
+      <c r="J146" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>571</v>
+      </c>
+      <c r="B147" t="s">
+        <v>860</v>
+      </c>
+      <c r="E147" t="s">
+        <v>956</v>
+      </c>
+      <c r="F147" s="9">
+        <f>F150*2.54</f>
+        <v>3386.3886403410002</v>
+      </c>
+      <c r="G147" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>957</v>
+      </c>
+      <c r="I147" t="s">
+        <v>188</v>
+      </c>
+      <c r="J147" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>617</v>
+      </c>
+      <c r="B148" t="s">
+        <v>861</v>
+      </c>
+      <c r="E148" t="s">
+        <v>956</v>
+      </c>
+      <c r="F148" s="9">
+        <f>F147*12</f>
+        <v>40636.663684092004</v>
+      </c>
+      <c r="G148" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" t="s">
+        <v>957</v>
+      </c>
+      <c r="I148" t="s">
+        <v>188</v>
+      </c>
+      <c r="J148" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>327</v>
+      </c>
+      <c r="B149" t="s">
+        <v>862</v>
+      </c>
+      <c r="E149" t="s">
+        <v>956</v>
+      </c>
+      <c r="F149" s="9">
+        <v>133.32238741500001</v>
+      </c>
+      <c r="G149" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" t="s">
+        <v>957</v>
+      </c>
+      <c r="I149" t="s">
+        <v>188</v>
+      </c>
+      <c r="J149" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>238</v>
+      </c>
+      <c r="B150" t="s">
+        <v>863</v>
+      </c>
+      <c r="E150" t="s">
+        <v>956</v>
+      </c>
+      <c r="F150" s="9">
+        <f>F149*10</f>
+        <v>1333.22387415</v>
+      </c>
+      <c r="G150" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" t="s">
+        <v>957</v>
+      </c>
+      <c r="I150" t="s">
+        <v>188</v>
+      </c>
+      <c r="J150" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>324</v>
+      </c>
+      <c r="B151" t="s">
+        <v>864</v>
+      </c>
+      <c r="E151" t="s">
+        <v>956</v>
+      </c>
+      <c r="F151" s="9">
+        <v>3376.85</v>
+      </c>
+      <c r="G151" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="s">
+        <v>957</v>
+      </c>
+      <c r="I151" t="s">
+        <v>188</v>
+      </c>
+      <c r="J151" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>328</v>
+      </c>
+      <c r="B152" t="s">
+        <v>950</v>
+      </c>
+      <c r="E152" t="s">
+        <v>956</v>
+      </c>
+      <c r="F152" s="9">
+        <f>F153/10</f>
+        <v>9.8066500000000012</v>
+      </c>
+      <c r="G152" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>957</v>
+      </c>
+      <c r="I152" t="s">
+        <v>188</v>
+      </c>
+      <c r="J152" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>239</v>
+      </c>
+      <c r="B153" t="s">
+        <v>865</v>
+      </c>
+      <c r="E153" t="s">
+        <v>956</v>
+      </c>
+      <c r="F153" s="9">
+        <v>98.066500000000005</v>
+      </c>
+      <c r="G153" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>957</v>
+      </c>
+      <c r="I153" t="s">
+        <v>188</v>
+      </c>
+      <c r="J153" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>326</v>
+      </c>
+      <c r="B154" t="s">
+        <v>866</v>
+      </c>
+      <c r="E154" t="s">
+        <v>956</v>
+      </c>
+      <c r="F154" s="9">
+        <f>F153*2.54</f>
+        <v>249.08891000000003</v>
+      </c>
+      <c r="G154" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>957</v>
+      </c>
+      <c r="I154" t="s">
+        <v>188</v>
+      </c>
+      <c r="J154" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>619</v>
+      </c>
+      <c r="B155" t="s">
+        <v>951</v>
+      </c>
+      <c r="E155" t="s">
+        <v>956</v>
+      </c>
+      <c r="F155" s="9">
+        <f>F154*12</f>
+        <v>2989.0669200000002</v>
+      </c>
+      <c r="G155" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>957</v>
+      </c>
+      <c r="I155" t="s">
+        <v>188</v>
+      </c>
+      <c r="J155" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" t="s">
+        <v>949</v>
+      </c>
+      <c r="E156" t="s">
+        <v>956</v>
+      </c>
+      <c r="F156" s="9">
+        <v>98.066500000000005</v>
+      </c>
+      <c r="G156" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="s">
+        <v>957</v>
+      </c>
+      <c r="I156" t="s">
+        <v>188</v>
+      </c>
+      <c r="J156" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>325</v>
+      </c>
+      <c r="B157" t="s">
+        <v>867</v>
+      </c>
+      <c r="E157" t="s">
+        <v>956</v>
+      </c>
+      <c r="F157" s="9">
+        <v>248.84</v>
+      </c>
+      <c r="G157" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>957</v>
+      </c>
+      <c r="I157" t="s">
+        <v>188</v>
+      </c>
+      <c r="J157" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>65</v>
+      </c>
+      <c r="B158" t="s">
+        <v>868</v>
+      </c>
+      <c r="C158" t="s">
+        <v>978</v>
+      </c>
+      <c r="E158" t="s">
+        <v>956</v>
+      </c>
+      <c r="F158" s="9">
+        <f>F137/F46^2</f>
+        <v>6894.7572931683608</v>
+      </c>
+      <c r="G158" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="s">
+        <v>957</v>
+      </c>
+      <c r="I158" t="s">
+        <v>188</v>
+      </c>
+      <c r="J158" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>115</v>
+      </c>
+      <c r="B159" t="s">
+        <v>869</v>
+      </c>
+      <c r="C159" t="s">
+        <v>979</v>
+      </c>
+      <c r="E159" t="s">
+        <v>956</v>
+      </c>
+      <c r="F159" s="9">
+        <f>F158*1000</f>
+        <v>6894757.2931683604</v>
+      </c>
+      <c r="G159" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>957</v>
+      </c>
+      <c r="I159" t="s">
+        <v>188</v>
+      </c>
+      <c r="J159" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>570</v>
+      </c>
+      <c r="B160" t="s">
+        <v>870</v>
+      </c>
+      <c r="C160" t="s">
+        <v>980</v>
+      </c>
+      <c r="E160" t="s">
+        <v>956</v>
+      </c>
+      <c r="F160" s="9">
+        <f>F137/F47^2</f>
+        <v>47.880258980335839</v>
+      </c>
+      <c r="G160" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>957</v>
+      </c>
+      <c r="I160" t="s">
+        <v>188</v>
+      </c>
+      <c r="J160" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>620</v>
+      </c>
+      <c r="B161" t="s">
+        <v>952</v>
+      </c>
+      <c r="E161" t="s">
+        <v>956</v>
+      </c>
+      <c r="F161" s="9">
+        <f>F162/1000</f>
+        <v>0.13332236842105263</v>
+      </c>
+      <c r="G161" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="s">
+        <v>957</v>
+      </c>
+      <c r="I161" t="s">
+        <v>188</v>
+      </c>
+      <c r="J161" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>105</v>
+      </c>
+      <c r="B162" t="s">
+        <v>66</v>
+      </c>
+      <c r="E162" t="s">
+        <v>956</v>
+      </c>
+      <c r="F162" s="9">
+        <f>F145/760</f>
+        <v>133.32236842105263</v>
+      </c>
+      <c r="G162" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="s">
+        <v>957</v>
+      </c>
+      <c r="I162" t="s">
+        <v>188</v>
+      </c>
+      <c r="J162" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>61</v>
+      </c>
+      <c r="B163" t="s">
+        <v>61</v>
+      </c>
+      <c r="E163" t="s">
+        <v>956</v>
+      </c>
+      <c r="F163" s="9">
+        <v>100000</v>
+      </c>
+      <c r="G163" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="s">
+        <v>957</v>
+      </c>
+      <c r="I163" t="s">
+        <v>188</v>
+      </c>
+      <c r="J163" t="s">
+        <v>267</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>133</v>
+      </c>
+      <c r="E164" t="s">
+        <v>956</v>
+      </c>
+      <c r="F164" s="9">
+        <v>1</v>
+      </c>
+      <c r="G164" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164" t="s">
+        <v>957</v>
+      </c>
+      <c r="I164" t="s">
+        <v>188</v>
+      </c>
+      <c r="J164" t="s">
+        <v>267</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>776</v>
+      </c>
+      <c r="B165" t="s">
+        <v>871</v>
+      </c>
+      <c r="C165" t="s">
+        <v>195</v>
+      </c>
+      <c r="E165" t="s">
+        <v>206</v>
+      </c>
+      <c r="F165" s="9">
+        <v>1055.05585262</v>
+      </c>
+      <c r="G165" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" t="s">
+        <v>227</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>777</v>
+      </c>
+      <c r="B166" t="s">
+        <v>872</v>
+      </c>
+      <c r="C166" t="s">
+        <v>299</v>
+      </c>
+      <c r="E166" t="s">
+        <v>206</v>
+      </c>
+      <c r="F166" s="9">
+        <v>1054.35026444</v>
+      </c>
+      <c r="G166" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" t="s">
+        <v>227</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>778</v>
+      </c>
+      <c r="B167" t="s">
+        <v>873</v>
+      </c>
+      <c r="C167" t="s">
+        <v>300</v>
+      </c>
+      <c r="E167" t="s">
+        <v>206</v>
+      </c>
+      <c r="F167" s="9">
+        <v>1055.8699999999999</v>
+      </c>
+      <c r="G167" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" t="s">
+        <v>227</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>953</v>
+      </c>
+      <c r="B168" t="s">
+        <v>874</v>
+      </c>
+      <c r="C168" t="s">
+        <v>301</v>
+      </c>
+      <c r="E168" t="s">
+        <v>206</v>
+      </c>
+      <c r="F168" s="9">
+        <v>1059.67</v>
+      </c>
+      <c r="G168" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" t="s">
+        <v>227</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>954</v>
+      </c>
+      <c r="B169" t="s">
+        <v>875</v>
+      </c>
+      <c r="C169" t="s">
+        <v>302</v>
+      </c>
+      <c r="E169" t="s">
+        <v>206</v>
+      </c>
+      <c r="F169" s="9">
+        <v>1054.8040000000001</v>
+      </c>
+      <c r="G169" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="s">
+        <v>227</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>779</v>
+      </c>
+      <c r="B170" t="s">
+        <v>876</v>
+      </c>
+      <c r="C170" t="s">
+        <v>342</v>
+      </c>
+      <c r="E170" t="s">
+        <v>206</v>
+      </c>
+      <c r="F170" s="9">
+        <v>1054.68</v>
+      </c>
+      <c r="G170" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="s">
+        <v>227</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>40</v>
+      </c>
+      <c r="B171" t="s">
+        <v>877</v>
+      </c>
+      <c r="E171" t="s">
+        <v>206</v>
+      </c>
+      <c r="F171" s="9">
+        <f>100000*F165</f>
+        <v>105505585.26199999</v>
+      </c>
+      <c r="G171" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="s">
+        <v>227</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>621</v>
+      </c>
+      <c r="B172" t="s">
+        <v>878</v>
+      </c>
+      <c r="E172" t="s">
+        <v>206</v>
+      </c>
+      <c r="F172" s="9">
+        <f>100000*F169</f>
+        <v>105480400.00000001</v>
+      </c>
+      <c r="G172" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="s">
+        <v>227</v>
+      </c>
+      <c r="I172" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>39</v>
+      </c>
+      <c r="B173" t="s">
+        <v>39</v>
+      </c>
+      <c r="E173" t="s">
+        <v>206</v>
+      </c>
+      <c r="F173" s="9">
+        <f>F165*10^15</f>
+        <v>1.05505585262E+18</v>
+      </c>
+      <c r="G173" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="s">
+        <v>227</v>
+      </c>
+      <c r="I173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>622</v>
+      </c>
+      <c r="B174" t="s">
+        <v>879</v>
+      </c>
+      <c r="E174" t="s">
+        <v>206</v>
+      </c>
+      <c r="F174" s="9">
+        <f>F168*10^15</f>
+        <v>1.0596700000000001E+18</v>
+      </c>
+      <c r="G174" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="s">
+        <v>227</v>
+      </c>
+      <c r="I174" t="s">
+        <v>17</v>
+      </c>
+      <c r="J174" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>196</v>
+      </c>
+      <c r="B175" t="s">
+        <v>880</v>
+      </c>
+      <c r="E175" t="s">
+        <v>206</v>
+      </c>
+      <c r="F175" s="9">
+        <v>4.1867999999999999</v>
+      </c>
+      <c r="G175" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="s">
+        <v>227</v>
+      </c>
+      <c r="I175" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>303</v>
+      </c>
+      <c r="B176" t="s">
+        <v>881</v>
+      </c>
+      <c r="E176" t="s">
+        <v>206</v>
+      </c>
+      <c r="F176" s="9">
+        <v>4.1840000000000002</v>
+      </c>
+      <c r="G176" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="s">
+        <v>227</v>
+      </c>
+      <c r="I176" t="s">
+        <v>17</v>
+      </c>
+      <c r="J176" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>304</v>
+      </c>
+      <c r="B177" t="s">
+        <v>882</v>
+      </c>
+      <c r="E177" t="s">
+        <v>206</v>
+      </c>
+      <c r="F177" s="9">
+        <v>4.1900199999999996</v>
+      </c>
+      <c r="G177" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H177" t="s">
+        <v>227</v>
+      </c>
+      <c r="I177" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>955</v>
+      </c>
+      <c r="B178" t="s">
+        <v>883</v>
+      </c>
+      <c r="E178" t="s">
+        <v>206</v>
+      </c>
+      <c r="F178" s="9">
+        <v>4.1858000000000004</v>
+      </c>
+      <c r="G178" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H178" t="s">
+        <v>227</v>
+      </c>
+      <c r="I178" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>343</v>
+      </c>
+      <c r="B179" t="s">
+        <v>884</v>
+      </c>
+      <c r="E179" t="s">
+        <v>206</v>
+      </c>
+      <c r="F179" s="9">
+        <v>4.1818999999999997</v>
+      </c>
+      <c r="G179" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H179" t="s">
+        <v>227</v>
+      </c>
+      <c r="I179" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" t="s">
+        <v>885</v>
+      </c>
+      <c r="E180" t="s">
+        <v>206</v>
+      </c>
+      <c r="F180" s="9">
+        <f>F175*1000</f>
+        <v>4186.8</v>
+      </c>
+      <c r="G180" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="s">
+        <v>227</v>
+      </c>
+      <c r="I180" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>305</v>
+      </c>
+      <c r="B181" t="s">
+        <v>886</v>
+      </c>
+      <c r="E181" t="s">
+        <v>206</v>
+      </c>
+      <c r="F181" s="9">
+        <f>F176*1000</f>
+        <v>4184</v>
+      </c>
+      <c r="G181" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="s">
+        <v>227</v>
+      </c>
+      <c r="I181" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>306</v>
+      </c>
+      <c r="B182" t="s">
+        <v>887</v>
+      </c>
+      <c r="E182" t="s">
+        <v>206</v>
+      </c>
+      <c r="F182" s="9">
+        <f>F177*1000</f>
+        <v>4190.0199999999995</v>
+      </c>
+      <c r="G182" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="s">
+        <v>227</v>
+      </c>
+      <c r="I182" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>88</v>
+      </c>
+      <c r="B183" t="s">
+        <v>888</v>
+      </c>
+      <c r="E183" t="s">
+        <v>206</v>
+      </c>
+      <c r="F183" s="9">
+        <v>1.602176565E-19</v>
+      </c>
+      <c r="G183" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="s">
+        <v>227</v>
+      </c>
+      <c r="I183" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>38</v>
+      </c>
+      <c r="B184" t="s">
+        <v>38</v>
+      </c>
+      <c r="E184" t="s">
+        <v>206</v>
+      </c>
+      <c r="F184" s="9">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G184" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="s">
+        <v>227</v>
+      </c>
+      <c r="I184" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>204</v>
+      </c>
+      <c r="B185" t="s">
+        <v>889</v>
+      </c>
+      <c r="E185" t="s">
+        <v>206</v>
+      </c>
+      <c r="F185" s="9">
+        <v>3600000</v>
+      </c>
+      <c r="G185" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="s">
+        <v>227</v>
+      </c>
+      <c r="I185" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>285</v>
+      </c>
+      <c r="B186" t="s">
+        <v>890</v>
+      </c>
+      <c r="E186" t="s">
+        <v>206</v>
+      </c>
+      <c r="F186" s="9">
+        <v>4184000000</v>
+      </c>
+      <c r="G186" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="s">
+        <v>227</v>
+      </c>
+      <c r="I186" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>148</v>
+      </c>
+      <c r="B187" t="s">
+        <v>227</v>
+      </c>
+      <c r="E187" t="s">
+        <v>206</v>
+      </c>
+      <c r="F187" s="9">
+        <v>1</v>
+      </c>
+      <c r="G187" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" t="s">
+        <v>227</v>
+      </c>
+      <c r="I187" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>320</v>
+      </c>
+      <c r="B188" t="s">
+        <v>60</v>
+      </c>
+      <c r="E188" t="s">
+        <v>923</v>
+      </c>
+      <c r="F188" s="9">
+        <f>550*F47*F137/F20</f>
+        <v>745.69987158227025</v>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="s">
+        <v>229</v>
+      </c>
+      <c r="I188" t="s">
+        <v>187</v>
+      </c>
+      <c r="J188" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>151</v>
+      </c>
+      <c r="B189" t="s">
+        <v>229</v>
+      </c>
+      <c r="E189" t="s">
+        <v>923</v>
+      </c>
+      <c r="F189" s="9">
+        <v>1</v>
+      </c>
+      <c r="G189" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="s">
+        <v>229</v>
+      </c>
+      <c r="I189" t="s">
+        <v>187</v>
+      </c>
+      <c r="J189" t="s">
+        <v>261</v>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" t="s">
+        <v>918</v>
+      </c>
+      <c r="E190" t="s">
+        <v>141</v>
+      </c>
+      <c r="F190" s="9">
+        <v>1000000000</v>
+      </c>
+      <c r="G190" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H190" t="s">
+        <v>119</v>
+      </c>
+      <c r="I190" t="s">
+        <v>221</v>
+      </c>
+      <c r="J190" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>210</v>
+      </c>
+      <c r="B191" t="s">
+        <v>891</v>
+      </c>
+      <c r="E191" t="s">
+        <v>141</v>
+      </c>
+      <c r="F191" s="9">
+        <v>1.1126499999999999E-12</v>
+      </c>
+      <c r="G191" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H191" t="s">
+        <v>119</v>
+      </c>
+      <c r="I191" t="s">
+        <v>221</v>
+      </c>
+      <c r="J191" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>210</v>
+      </c>
+      <c r="E192" t="s">
+        <v>141</v>
+      </c>
+      <c r="F192" s="9">
+        <v>1.1126499999999999E-12</v>
+      </c>
+      <c r="G192" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H192" t="s">
+        <v>119</v>
+      </c>
+      <c r="I192" t="s">
+        <v>221</v>
+      </c>
+      <c r="J192" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>917</v>
+      </c>
+      <c r="E193" t="s">
+        <v>139</v>
+      </c>
+      <c r="F193" s="9">
+        <v>10</v>
+      </c>
+      <c r="G193" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H193" t="s">
+        <v>118</v>
+      </c>
+      <c r="I193" t="s">
+        <v>226</v>
+      </c>
+      <c r="J193" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>209</v>
+      </c>
+      <c r="B194" t="s">
+        <v>892</v>
+      </c>
+      <c r="E194" t="s">
+        <v>139</v>
+      </c>
+      <c r="F194" s="9">
+        <v>3600</v>
+      </c>
+      <c r="G194" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H194" t="s">
+        <v>118</v>
+      </c>
+      <c r="I194" t="s">
+        <v>226</v>
+      </c>
+      <c r="J194" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>31</v>
+      </c>
+      <c r="B195" t="s">
+        <v>893</v>
+      </c>
+      <c r="E195" t="s">
+        <v>139</v>
+      </c>
+      <c r="F195" s="9">
+        <v>96485.34</v>
+      </c>
+      <c r="G195" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H195" t="s">
+        <v>118</v>
+      </c>
+      <c r="I195" t="s">
+        <v>226</v>
+      </c>
+      <c r="J195" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>83</v>
+      </c>
+      <c r="B196" t="s">
+        <v>32</v>
+      </c>
+      <c r="E196" t="s">
+        <v>139</v>
+      </c>
+      <c r="F196" s="9">
+        <v>3.335641E-10</v>
+      </c>
+      <c r="G196" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H196" t="s">
+        <v>118</v>
+      </c>
+      <c r="I196" t="s">
+        <v>226</v>
+      </c>
+      <c r="J196" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>916</v>
+      </c>
+      <c r="E197" t="s">
+        <v>139</v>
+      </c>
+      <c r="F197" s="9">
+        <v>3.335641E-10</v>
+      </c>
+      <c r="G197" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H197" t="s">
+        <v>118</v>
+      </c>
+      <c r="I197" t="s">
+        <v>226</v>
+      </c>
+      <c r="J197" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198" t="s">
+        <v>915</v>
+      </c>
+      <c r="E198" t="s">
+        <v>192</v>
+      </c>
+      <c r="F198" s="9">
+        <v>1000000000</v>
+      </c>
+      <c r="G198" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H198" t="s">
+        <v>121</v>
+      </c>
+      <c r="I198" t="s">
+        <v>223</v>
+      </c>
+      <c r="J198" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>215</v>
+      </c>
+      <c r="B199" t="s">
+        <v>215</v>
+      </c>
+      <c r="E199" t="s">
+        <v>192</v>
+      </c>
+      <c r="F199" s="9">
+        <v>1</v>
+      </c>
+      <c r="G199" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H199" t="s">
+        <v>121</v>
+      </c>
+      <c r="I199" t="s">
+        <v>223</v>
+      </c>
+      <c r="J199" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>914</v>
+      </c>
+      <c r="E200" t="s">
+        <v>192</v>
+      </c>
+      <c r="F200" s="9">
+        <v>1.1126499999999999E-12</v>
+      </c>
+      <c r="G200" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H200" t="s">
+        <v>121</v>
+      </c>
+      <c r="I200" t="s">
+        <v>223</v>
+      </c>
+      <c r="J200" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>295</v>
+      </c>
+      <c r="B201" t="s">
+        <v>913</v>
+      </c>
+      <c r="E201" t="s">
+        <v>140</v>
+      </c>
+      <c r="F201" s="9">
+        <v>10</v>
+      </c>
+      <c r="G201" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H201" t="s">
+        <v>117</v>
+      </c>
+      <c r="I201" t="s">
+        <v>216</v>
+      </c>
+      <c r="J201" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>30</v>
+      </c>
+      <c r="B202" t="s">
+        <v>30</v>
+      </c>
+      <c r="E202" t="s">
+        <v>140</v>
+      </c>
+      <c r="F202" s="9">
+        <v>10</v>
+      </c>
+      <c r="G202" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H202" t="s">
+        <v>117</v>
+      </c>
+      <c r="I202" t="s">
+        <v>216</v>
+      </c>
+      <c r="J202" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>211</v>
+      </c>
+      <c r="B203" t="s">
+        <v>894</v>
+      </c>
+      <c r="E203" t="s">
+        <v>140</v>
+      </c>
+      <c r="F203" s="9">
+        <v>3.335641E-10</v>
+      </c>
+      <c r="G203" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H203" t="s">
+        <v>117</v>
+      </c>
+      <c r="I203" t="s">
+        <v>216</v>
+      </c>
+      <c r="J203" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>85</v>
+      </c>
+      <c r="B204" t="s">
+        <v>35</v>
+      </c>
+      <c r="E204" t="s">
+        <v>140</v>
+      </c>
+      <c r="F204" s="9">
+        <v>0.79577469999999995</v>
+      </c>
+      <c r="G204" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H204" t="s">
+        <v>117</v>
+      </c>
+      <c r="I204" t="s">
+        <v>216</v>
+      </c>
+      <c r="J204" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" t="s">
+        <v>211</v>
+      </c>
+      <c r="C205" t="s">
+        <v>298</v>
+      </c>
+      <c r="E205" t="s">
+        <v>140</v>
+      </c>
+      <c r="F205" s="9">
+        <v>3.335641E-10</v>
+      </c>
+      <c r="G205" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H205" t="s">
+        <v>117</v>
+      </c>
+      <c r="I205" t="s">
+        <v>216</v>
+      </c>
+      <c r="J205" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206" t="s">
+        <v>912</v>
+      </c>
+      <c r="E206" t="s">
+        <v>143</v>
+      </c>
+      <c r="F206" s="9">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="G206" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H206" t="s">
+        <v>120</v>
+      </c>
+      <c r="I206" t="s">
+        <v>222</v>
+      </c>
+      <c r="J206" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>213</v>
+      </c>
+      <c r="B207" t="s">
+        <v>895</v>
+      </c>
+      <c r="E207" t="s">
+        <v>143</v>
+      </c>
+      <c r="F207" s="9">
+        <v>898755200000</v>
+      </c>
+      <c r="G207" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H207" t="s">
+        <v>120</v>
+      </c>
+      <c r="I207" t="s">
+        <v>222</v>
+      </c>
+      <c r="J207" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>213</v>
+      </c>
+      <c r="E208" t="s">
+        <v>143</v>
+      </c>
+      <c r="F208" s="9">
+        <v>898755200000</v>
+      </c>
+      <c r="G208" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H208" t="s">
+        <v>120</v>
+      </c>
+      <c r="I208" t="s">
+        <v>222</v>
+      </c>
+      <c r="J208" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>87</v>
+      </c>
+      <c r="B209" t="s">
+        <v>37</v>
+      </c>
+      <c r="E209" t="s">
+        <v>147</v>
+      </c>
+      <c r="F209" s="9">
+        <v>79.577470000000005</v>
+      </c>
+      <c r="G209" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H209" t="s">
+        <v>184</v>
+      </c>
+      <c r="I209" t="s">
+        <v>258</v>
+      </c>
+      <c r="J209" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>86</v>
+      </c>
+      <c r="B210" t="s">
+        <v>36</v>
+      </c>
+      <c r="E210" t="s">
+        <v>146</v>
+      </c>
+      <c r="F210" s="9">
+        <v>1E-8</v>
+      </c>
+      <c r="G210" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H210" t="s">
+        <v>124</v>
+      </c>
+      <c r="I210" t="s">
+        <v>254</v>
+      </c>
+      <c r="J210" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>293</v>
+      </c>
+      <c r="B211" t="s">
+        <v>293</v>
+      </c>
+      <c r="E211" t="s">
+        <v>146</v>
+      </c>
+      <c r="F211" s="9">
+        <v>1.256637E-7</v>
+      </c>
+      <c r="G211" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H211" t="s">
+        <v>124</v>
+      </c>
+      <c r="I211" t="s">
+        <v>254</v>
+      </c>
+      <c r="J211" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>84</v>
+      </c>
+      <c r="B212" t="s">
+        <v>33</v>
+      </c>
+      <c r="E212" t="s">
+        <v>145</v>
+      </c>
+      <c r="F212" s="9">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="G212" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H212" t="s">
+        <v>183</v>
+      </c>
+      <c r="I212" t="s">
+        <v>255</v>
+      </c>
+      <c r="J212" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>296</v>
+      </c>
+      <c r="B213" t="s">
+        <v>34</v>
+      </c>
+      <c r="C213" t="s">
+        <v>297</v>
+      </c>
+      <c r="E213" t="s">
+        <v>145</v>
+      </c>
+      <c r="F213" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G213" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H213" t="s">
+        <v>183</v>
+      </c>
+      <c r="I213" t="s">
+        <v>255</v>
+      </c>
+      <c r="J213" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>911</v>
+      </c>
+      <c r="E214" t="s">
+        <v>142</v>
+      </c>
+      <c r="F214" s="9">
+        <v>1E-8</v>
+      </c>
+      <c r="G214" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H214" t="s">
+        <v>123</v>
+      </c>
+      <c r="I214" t="s">
+        <v>225</v>
+      </c>
+      <c r="J214" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>212</v>
+      </c>
+      <c r="B215" t="s">
+        <v>896</v>
+      </c>
+      <c r="E215" t="s">
+        <v>142</v>
+      </c>
+      <c r="F215" s="9">
+        <v>299.79250000000002</v>
+      </c>
+      <c r="G215" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H215" t="s">
+        <v>123</v>
+      </c>
+      <c r="I215" t="s">
+        <v>225</v>
+      </c>
+      <c r="J215" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" t="s">
+        <v>897</v>
+      </c>
+      <c r="E216" t="s">
+        <v>142</v>
+      </c>
+      <c r="F216" s="9">
+        <v>299.79250000000002</v>
+      </c>
+      <c r="G216" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H216" t="s">
+        <v>123</v>
+      </c>
+      <c r="I216" t="s">
+        <v>225</v>
+      </c>
+      <c r="J216" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" t="s">
+        <v>898</v>
+      </c>
+      <c r="E217" t="s">
+        <v>144</v>
+      </c>
+      <c r="F217" s="9">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="G217" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H217" t="s">
+        <v>122</v>
+      </c>
+      <c r="I217" t="s">
+        <v>224</v>
+      </c>
+      <c r="J217" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>214</v>
+      </c>
+      <c r="B218" t="s">
+        <v>899</v>
+      </c>
+      <c r="E218" t="s">
+        <v>144</v>
+      </c>
+      <c r="F218" s="9">
+        <v>898755200000</v>
+      </c>
+      <c r="G218" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H218" t="s">
+        <v>122</v>
+      </c>
+      <c r="I218" t="s">
+        <v>224</v>
+      </c>
+      <c r="J218" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219" t="s">
+        <v>214</v>
+      </c>
+      <c r="E219" t="s">
+        <v>144</v>
+      </c>
+      <c r="F219" s="9">
+        <v>898755200000</v>
+      </c>
+      <c r="G219" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H219" t="s">
+        <v>122</v>
+      </c>
+      <c r="I219" t="s">
+        <v>224</v>
+      </c>
+      <c r="J219" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>279</v>
+      </c>
+      <c r="B220" t="s">
+        <v>900</v>
+      </c>
+      <c r="E220" t="s">
+        <v>205</v>
+      </c>
+      <c r="F220" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="G220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H220" t="s">
+        <v>233</v>
+      </c>
+      <c r="I220" t="s">
+        <v>234</v>
+      </c>
+      <c r="J220" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>129</v>
+      </c>
+      <c r="B221" t="s">
+        <v>901</v>
+      </c>
+      <c r="E221" t="s">
+        <v>159</v>
+      </c>
+      <c r="F221" s="9">
+        <v>1550003000</v>
+      </c>
+      <c r="G221" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H221" t="s">
+        <v>174</v>
+      </c>
+      <c r="I221" t="s">
+        <v>264</v>
+      </c>
+      <c r="J221" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>282</v>
+      </c>
+      <c r="B222" t="s">
+        <v>910</v>
+      </c>
+      <c r="E222" t="s">
+        <v>158</v>
+      </c>
+      <c r="F222" s="9">
+        <v>10.763909999999999</v>
+      </c>
+      <c r="G222" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H222" t="s">
+        <v>130</v>
+      </c>
+      <c r="I222" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>283</v>
+      </c>
+      <c r="B223" t="s">
+        <v>909</v>
+      </c>
+      <c r="E223" t="s">
+        <v>159</v>
+      </c>
+      <c r="F223" s="9">
+        <v>3426259</v>
+      </c>
+      <c r="G223" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H223" t="s">
+        <v>174</v>
+      </c>
+      <c r="I223" t="s">
+        <v>264</v>
+      </c>
+      <c r="J223" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>284</v>
+      </c>
+      <c r="B224" t="s">
+        <v>175</v>
+      </c>
+      <c r="E224" t="s">
+        <v>159</v>
+      </c>
+      <c r="F224" s="9">
+        <v>3183099000</v>
+      </c>
+      <c r="G224" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H224" t="s">
+        <v>174</v>
+      </c>
+      <c r="I224" t="s">
+        <v>264</v>
+      </c>
+      <c r="J224" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>131</v>
+      </c>
+      <c r="B225" t="s">
+        <v>902</v>
+      </c>
+      <c r="E225" t="s">
+        <v>158</v>
+      </c>
+      <c r="F225" s="9">
+        <v>10.763909999999999</v>
+      </c>
+      <c r="G225" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H225" t="s">
+        <v>130</v>
+      </c>
+      <c r="I225" t="s">
+        <v>264</v>
+      </c>
+      <c r="J225" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>98</v>
+      </c>
+      <c r="B226" t="s">
+        <v>55</v>
+      </c>
+      <c r="E226" t="s">
+        <v>158</v>
+      </c>
+      <c r="F226" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G226" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H226" t="s">
+        <v>130</v>
+      </c>
+      <c r="I226" t="s">
+        <v>264</v>
+      </c>
+      <c r="J226" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>110</v>
+      </c>
+      <c r="B227" t="s">
+        <v>73</v>
+      </c>
+      <c r="E227" t="s">
+        <v>207</v>
+      </c>
+      <c r="F227" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="G227" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H227" t="s">
+        <v>177</v>
+      </c>
+      <c r="I227" t="s">
+        <v>274</v>
+      </c>
+      <c r="J227" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>111</v>
+      </c>
+      <c r="B228" t="s">
+        <v>74</v>
+      </c>
+      <c r="E228" t="s">
+        <v>207</v>
+      </c>
+      <c r="F228" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G228" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H228" t="s">
+        <v>177</v>
+      </c>
+      <c r="I228" t="s">
+        <v>274</v>
+      </c>
+      <c r="J228" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>289</v>
+      </c>
+      <c r="B229" t="s">
+        <v>903</v>
+      </c>
+      <c r="E229" t="s">
+        <v>272</v>
+      </c>
+      <c r="F229" s="9">
+        <v>10</v>
+      </c>
+      <c r="G229" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H229" t="s">
+        <v>178</v>
+      </c>
+      <c r="I229" t="s">
+        <v>275</v>
+      </c>
+      <c r="J229" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>113</v>
+      </c>
+      <c r="B230" t="s">
+        <v>652</v>
+      </c>
+      <c r="D230" s="1"/>
+      <c r="E230" t="s">
+        <v>152</v>
+      </c>
+      <c r="F230" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G230" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="s">
+        <v>179</v>
+      </c>
+      <c r="I230" t="s">
+        <v>276</v>
+      </c>
+      <c r="J230" t="s">
+        <v>262</v>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>771</v>
+      </c>
+      <c r="B231" t="s">
+        <v>904</v>
+      </c>
+      <c r="C231" t="s">
+        <v>203</v>
+      </c>
+      <c r="E231" t="s">
+        <v>169</v>
+      </c>
+      <c r="F231" s="9">
+        <f>F92/F21</f>
+        <v>6.309019639999999E-5</v>
+      </c>
+      <c r="G231" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="s">
+        <v>181</v>
+      </c>
+      <c r="I231" t="s">
+        <v>191</v>
+      </c>
+      <c r="J231" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>773</v>
+      </c>
+      <c r="B232" t="s">
+        <v>905</v>
+      </c>
+      <c r="C232" t="s">
+        <v>772</v>
+      </c>
+      <c r="E232" t="s">
+        <v>169</v>
+      </c>
+      <c r="F232" s="9">
+        <f>F47^3/F21</f>
+        <v>4.719474432000001E-4</v>
+      </c>
+      <c r="G232" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="s">
+        <v>181</v>
+      </c>
+      <c r="I232" t="s">
+        <v>191</v>
+      </c>
+      <c r="J232" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>775</v>
+      </c>
+      <c r="B233" t="s">
+        <v>945</v>
+      </c>
+      <c r="C233" t="s">
+        <v>774</v>
+      </c>
+      <c r="E233" t="s">
+        <v>169</v>
+      </c>
+      <c r="F233" s="9">
+        <f>F119/F21</f>
+        <v>1.6666666666666667E-5</v>
+      </c>
+      <c r="G233" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="s">
+        <v>181</v>
+      </c>
+      <c r="I233" t="s">
+        <v>191</v>
+      </c>
+      <c r="J233" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="36" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>